--- a/BSTvsArrayvsHash.xlsx
+++ b/BSTvsArrayvsHash.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwap\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC3E20C-DDEB-48E5-A674-60145CE22644}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B9BF4-44F1-42AD-A1A3-48A7E1C3C015}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{24B8A47F-152B-4737-B466-FDEB337EF26A}"/>
   </bookViews>
@@ -31,37 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Trial 1</t>
-  </si>
-  <si>
-    <t>Trial 2</t>
-  </si>
-  <si>
-    <t>Trial 3</t>
-  </si>
-  <si>
-    <t>Trial 4</t>
-  </si>
-  <si>
-    <t>Trial 5</t>
-  </si>
-  <si>
-    <t>Trial 6</t>
-  </si>
-  <si>
-    <t>Trial 7</t>
-  </si>
-  <si>
-    <t>Trial 8</t>
-  </si>
-  <si>
-    <t>Trial 9</t>
-  </si>
-  <si>
-    <t>Trial 10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BST Time(ms)</t>
   </si>
@@ -69,10 +39,10 @@
     <t>Array Time(ms)</t>
   </si>
   <si>
-    <t>Ten trials run with 5 barcodes each run randomly chosen by a number generator</t>
+    <t>Hash time(ms)</t>
   </si>
   <si>
-    <t>Hash time(ms)</t>
+    <t>Elements</t>
   </si>
 </sst>
 </file>
@@ -144,139 +114,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>BST vs. Array times</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.9979440069991252E-2"/>
-          <c:y val="0.27819444444444447"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BST Time(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>BST</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$K$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Trial 1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trial 2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Trial 3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Trial 4</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Trial 5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Trial 6</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Trial 7</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Trial 8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Trial 9</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Trial 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -291,35 +190,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CA2-4EBA-8C1A-5C44CB6AB8F0}"/>
+              <c16:uniqueId val="{00000000-5F75-4E5A-8A48-637109BDD5F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -327,63 +227,58 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Array Time(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$K$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Trial 1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trial 2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Trial 3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Trial 4</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Trial 5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Trial 6</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Trial 7</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Trial 8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Trial 9</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Trial 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -392,41 +287,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106</c:v>
+                  <c:v>1702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>2518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBC9-4220-A0DC-272F8363A74A}"/>
+              <c16:uniqueId val="{00000001-5F75-4E5A-8A48-637109BDD5F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -434,63 +330,58 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hash time(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Hash</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$B$1:$K$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Trial 1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trial 2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Trial 3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Trial 4</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Trial 5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Trial 6</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Trial 7</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Trial 8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Trial 9</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Trial 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -502,38 +393,39 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBC9-4220-A0DC-272F8363A74A}"/>
+              <c16:uniqueId val="{00000002-5F75-4E5A-8A48-637109BDD5F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -545,18 +437,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="480308968"/>
-        <c:axId val="480309296"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="414464904"/>
+        <c:axId val="419174264"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="480308968"/>
+        <c:axId val="414464904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Searched</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -594,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480309296"/>
+        <c:crossAx val="419174264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480309296"/>
+        <c:axId val="419174264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,6 +573,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -653,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480308968"/>
+        <c:crossAx val="414464904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -666,17 +672,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24682543629414744"/>
-          <c:y val="0.15292319935729784"/>
-          <c:w val="0.61247917032683286"/>
-          <c:h val="8.3026411366475886E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -708,6 +704,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -784,7 +787,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -892,6 +895,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -902,6 +910,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -933,6 +946,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1291,22 +1307,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C37ECB-FACC-42E4-847E-8549CCE83EAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8B5F19-746B-42B8-A720-B88BCBF09EDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD76926-3C7E-40C4-9815-7B96176B5AEF}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,40 +1657,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="C1" s="1">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1683,102 +1702,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="E3">
-        <v>112</v>
+        <v>694</v>
       </c>
       <c r="F3">
-        <v>147</v>
+        <v>781</v>
       </c>
       <c r="G3">
-        <v>119</v>
+        <v>1033</v>
       </c>
       <c r="H3">
-        <v>126</v>
+        <v>1342</v>
       </c>
       <c r="I3">
-        <v>69</v>
+        <v>1515</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>1702</v>
       </c>
       <c r="K3">
-        <v>116</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
